--- a/biology/Botanique/Frank_Nicholas_Meyer/Frank_Nicholas_Meyer.xlsx
+++ b/biology/Botanique/Frank_Nicholas_Meyer/Frank_Nicholas_Meyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Nicholas Meyer (né à Amsterdam en 1875 et mort en Chine le 1er juin 1918) est un explorateur du département de l'Agriculture des États-Unis, qui voyagea en Asie pour collecter de nouvelles espèces de plantes. Il introduisit quelque 2 500 espèces aux États-Unis. Le citron de Meyer rappelle son nom.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né Frans Nicholaas Meijer à Amsterdam en 1875, il émigre aux États-Unis en 1901. Il est embauché en 1905 par le département de l'Agriculture à l’Office of Foreign Seed and Plant Introduction pour récolter et ramener aux États-Unis de nouvelles espèces végétales d'intérêt économique.
 À la suite d'un accord entre Charles Sprague Sargent, directeur de l’arboretum Arnold de l'université Harvard, et David Fairchild, le président de l’Office of Foreign Seeds and Plant Introduction, Meyer envoie aussi à l'Arnold Arboretum des arbres et arbustes d'intérêt ornemental, ainsi que les photos de ses voyages.
@@ -544,7 +558,9 @@
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En reconnaissance à son travail, la médaille Frank N. Meyer pour les ressources génétiques végétales a été créée par ses collègues du département de l'Agriculture, à l'aide des fonds qu'il avait légués à l'organisation.
 </t>
@@ -575,7 +591,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Frank Nicholas Meyer » (voir la liste des auteurs).</t>
         </is>
